--- a/static/download/excel/案卷报送信息模版.xlsx
+++ b/static/download/excel/案卷报送信息模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\综合执法总体组\2020年考评工作\报送模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结案时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河北省</t>
   </si>
   <si>
@@ -1526,6 +1522,10 @@
 4、单位所在地行政区划必须选择所在地的地市行政区划；
 5、结案时间指案件办结立卷时间，格式是XXXX年XX月XX日，本次报送案卷的结案时间应在2019年6月1日以后。</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结案开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1682,7 +1682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1743,13 +1743,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2060,10 +2057,10 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D47" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C55"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2083,7 +2080,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="68.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2106,13 +2103,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>1</v>
@@ -2122,7 +2119,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="24" t="s">
-        <v>6</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1" ht="30.4" customHeight="1">
@@ -2130,14 +2127,14 @@
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J3" s="24"/>
     </row>
@@ -3819,10 +3816,7 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B4:B1048576">
-      <formula1>"行政处罚,行政强制"</formula1>
-    </dataValidation>
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C56:C1048576">
       <formula1>"公路路政,道路运政,水路运政,航道行政,港口行政,地方海事行政,工程质量监督管理"</formula1>
     </dataValidation>
@@ -3841,11 +3835,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I145">
       <formula1>INDIRECT(H8)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J4:J1048576">
       <formula1>43617</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5:C55">
       <formula1>"公路路政,道路运政,水路运政,航道行政,港口行政,地方海事行政,直属海事行政,工程质量监督管理"</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"处罚或强制,行政许可"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,7 +3866,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="42.75" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3882,7 +3880,7 @@
     </row>
     <row r="2" spans="1:10" ht="184.9" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3964,1479 +3962,1480 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="AF4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AF5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="AF7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="AF9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE10" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="AF10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AE11" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AF11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="AF12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AE13" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="AF13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="AF14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="AF15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="P18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="S19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="S20" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="S21" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="S22" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="V23" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="V24" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="V25" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="V26" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="V27" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="V28" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="V29" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="V30" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="V31" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="V32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="22:22">
       <c r="V33" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="22:22">
       <c r="V34" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="22:22">
       <c r="V35" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="22:22">
       <c r="V36" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="22:22">
       <c r="V37" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="22:22">
       <c r="V38" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="22:22">
       <c r="V39" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>